--- a/BalanceSheet/WSM_bal.xlsx
+++ b/BalanceSheet/WSM_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>122134000.0</v>
+        <v>1006000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-83045000.0</v>
+        <v>1125000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>31542000.0</v>
+        <v>1042000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>28513000.0</v>
+        <v>1071000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>157856000.0</v>
+        <v>1101000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1258541000.0</v>
@@ -1836,19 +1836,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-28790000.0</v>
+        <v>543000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>195881000.0</v>
+        <v>562000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-48731000.0</v>
+        <v>373000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-92871000.0</v>
+        <v>423000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>81050000.0</v>
+        <v>521000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>444279000.0</v>
@@ -2886,19 +2886,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-6092000.0</v>
+        <v>-62000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>-4740000.0</v>
+        <v>-42000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>356000.0</v>
+        <v>-38000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-2585000.0</v>
+        <v>-33000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>8380000.0</v>
+        <v>-48000000.0</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
